--- a/ic_[10-50]——1.5b.xlsx
+++ b/ic_[10-50]——1.5b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="13160"/>
   </bookViews>
   <sheets>
     <sheet name="Networks" sheetId="1" r:id="rId1"/>
@@ -1082,11 +1082,11 @@
   <sheetPr/>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="7" max="7" width="12.625"/>
   </cols>
